--- a/data/output/FV2410_FV2404/INVOIC/31003.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="329">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="329">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1128,6 +1128,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U191" totalsRowShown="0">
+  <autoFilter ref="A1:U191"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,7 +1447,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10253,5 +10286,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31003.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31003.xlsx
@@ -2094,7 +2094,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3040,7 +3040,7 @@
         <v>304</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3228,7 +3228,7 @@
         <v>304</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3416,7 +3416,7 @@
         <v>305</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3696,7 +3696,7 @@
         <v>306</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2"/>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4026,7 +4026,7 @@
         <v>307</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6434,7 +6434,7 @@
         <v>313</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8250,7 +8250,7 @@
         <v>321</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8570,7 +8570,7 @@
         <v>324</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8774,7 +8774,7 @@
         <v>324</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8978,7 +8978,7 @@
         <v>325</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N165" s="2"/>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N189" s="2"/>
